--- a/docs/PTA2_DDC_15/PTA1_R2_BDDC_15_24.07.24_output.xlsx
+++ b/docs/PTA2_DDC_15/PTA1_R2_BDDC_15_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4333 +505,5150 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731430567.4320543</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731430568.6336272</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430567.4320543.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430568.6336272.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.86</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731430569.0604916</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731430570.4943545</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430569.0604916.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430570.4943545.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.94</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.59</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731430570.5829844</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731430572.0191052</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430570.5829844.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430572.0191052.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>295.78</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2200000000000273</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731430572.1379995</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731430573.1005282</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430572.1379995.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731430573.1005282.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>296.07</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>295.93</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731430573.2857454</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731430573.2857454.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731430573.2857454.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>296.26</v>
       </c>
-      <c r="J7" t="n">
-        <v>296.26</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731430573.8180025</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731430575.320915</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430573.8180025.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430575.320915.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>135.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>136.11</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.210000000000008</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731430575.6681077</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731430575.9477365</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430575.6681077.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430575.9477365.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>135.9</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.48</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731430577.3268127</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731430577.6685994</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430577.3268127.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430577.6685994.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>135.98</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>136.22</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731430577.860061</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731430579.2433753</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430577.860061.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430579.2433753.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>136.38</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>136.71</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3300000000000125</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731430579.88435</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731430580.639097</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430579.88435.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430580.639097.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>136.34</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>136.76</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731430580.9355874</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731430581.0844705</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430580.9355874.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731430581.0844705.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>137.08</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>136.94</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731430581.2179947</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731430581.2179947.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731430581.2179947.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>136.77</v>
       </c>
-      <c r="J14" t="n">
-        <v>136.77</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>136.76</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.01000000000001933</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731430581.586788</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731430581.681668</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430581.586788.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430581.681668.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6971</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731430584.7727501</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731430586.0230582</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430584.7727501.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430586.0230582.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6960.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6967</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731430587.6519148</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731430588.5234492</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430587.6519148.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430588.5234492.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6949.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6958.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>9</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731430588.7264714</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731430589.0490587</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430588.7264714.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731430589.0490587.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6980</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6972</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731430589.2301264</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731430589.2301264.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731430589.2301264.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6960</v>
       </c>
-      <c r="J19" t="n">
-        <v>6960</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>6972</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731430589.5218039</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731430591.013108</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731430589.5218039.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731430591.013108.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>533.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>534.3</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.099999999999909</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731430592.3356168</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731430593.7036517</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731430592.3356168.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731430593.7036517.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>535.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>536.45</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-1.050000000000068</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731430594.9116397</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731430595.3527858</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731430594.9116397.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731430595.3527858.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>535.35</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>536.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731430596.6514256</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731430596.6514256.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731430596.6514256.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>537.05</v>
       </c>
-      <c r="J23" t="n">
-        <v>537.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>537</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731430597.497826</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731430599.2562885</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731430597.497826.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731430599.2562885.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1100</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731430599.5738175</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731430599.6426203</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731430599.5738175.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731430599.6426203.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1098.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.600000000000136</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731430601.3404248</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731430601.7859287</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731430601.3404248.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731430601.7859287.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1098.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1098.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731430603.2801542</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731430603.2801542.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731430603.2801542.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J27" t="n">
-        <v>1094.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731430607.3662045</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731430608.0666418</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430607.3662045.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430608.0666418.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>129.48</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>129.12</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731430608.831623</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731430609.312086</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430608.831623.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430609.312086.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>129.68</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>129.32</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731430609.4629283</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731430609.8279622</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430609.4629283.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430609.8279622.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>129.68</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>129.3</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731430610.2497785</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731430610.4896624</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430610.2497785.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430610.4896624.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>128.96</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>129.42</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731430610.647859</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731430612.275322</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430610.647859.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430612.275322.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>129.74</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>131</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-1.259999999999991</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731430613.6121233</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731430613.8701665</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430613.6121233.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731430613.8701665.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>131.68</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>131.12</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731430614.1284323</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731430614.1284323.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731430614.1284323.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>131.42</v>
       </c>
-      <c r="J34" t="n">
-        <v>131.42</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731430618.56018</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731430618.697742</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731430618.56018.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731430618.697742.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>168.42</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>168.48</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731430619.2086177</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731430622.0306692</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731430619.2086177.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731430622.0306692.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>168.5</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>172.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-3.699999999999989</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-2.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731430622.9748619</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731430622.9748619.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731430622.9748619.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>172.18</v>
       </c>
-      <c r="J37" t="n">
-        <v>172.18</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
+      <c r="L37" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731430626.1440232</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731430626.8454878</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430626.1440232.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430626.8454878.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>53.385</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>53.32</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731430627.1602407</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731430627.2568188</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430627.1602407.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430627.2568188.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>53.32</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>53.365</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.04500000000000171</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731430627.5275946</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731430629.7724326</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430627.5275946.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430629.7724326.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>53.4</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>53.665</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.2650000000000006</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731430630.0270538</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731430630.2378209</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430630.0270538.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430630.2378209.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>53.725</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>53.66</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.06500000000000483</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731430630.3053136</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731430630.5113418</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430630.3053136.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731430630.5113418.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>53.73</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>53.66</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731430630.611058</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731430630.611058.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731430630.611058.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>53.605</v>
       </c>
-      <c r="J43" t="n">
-        <v>53.605</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>53.535</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731430632.5237136</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731430636.5756643</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731430632.5237136.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731430636.5756643.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1462</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-6.799999999999955</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731430638.6830692</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731430639.7340033</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731430638.6830692.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731430639.7340033.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1469.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1468.8</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731430639.7780254</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731430639.7780254.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731430639.7780254.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1468</v>
       </c>
-      <c r="J46" t="n">
-        <v>1468</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
+      <c r="L46" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731430641.643754</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731430642.8304582</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430641.643754.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430642.8304582.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>63.85</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2199999999999918</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731430644.1129568</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731430644.7086425</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430644.1129568.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430644.7086425.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>64.14</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>63.89</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731430644.882664</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731430645.0938253</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430644.882664.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430645.0938253.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>63.84</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>63.96</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731430645.4527695</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731430647.309358</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430645.4527695.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430647.309358.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>64.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>64.23</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731430647.3734405</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731430648.5997813</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430647.3734405.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731430648.5997813.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>64.16</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731430651.89592</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731430652.439247</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731430651.89592.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731430652.439247.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>59.21</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>59.23</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731430652.6681173</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731430653.6533163</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731430652.6681173.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731430653.6533163.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>59.03</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>59.04</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731430654.4557464</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731430655.9881382</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731430654.4557464.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731430655.9881382.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>59.08</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>59.26</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1799999999999997</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731430656.0030966</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731430656.0030966.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731430656.0030966.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>59.26</v>
       </c>
-      <c r="J55" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>59.21</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731430658.8704097</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731430659.34981</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430658.8704097.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430659.34981.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>145.9</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>145.98</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731430659.5736947</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731430659.8008687</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430659.5736947.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430659.8008687.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>145.74</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>145.82</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731430660.5208259</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731430661.6037467</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430660.5208259.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430661.6037467.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>145.92</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>145.7</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731430661.6828537</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731430663.1240213</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430661.6828537.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731430663.1240213.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>145.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>145.38</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731430664.5898597</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731430665.0278568</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430664.5898597.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430665.0278568.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>91.5</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>90.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.299999999999997</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731430665.1308746</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731430668.779858</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430665.1308746.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430668.779858.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>90.38</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>89.2</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.179999999999993</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-1.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731430670.82342</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731430671.0476794</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430670.82342.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430671.0476794.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>89.38</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>89.3</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731430671.1337478</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731430671.2372942</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430671.1337478.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731430671.2372942.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>89.31999999999999</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>89.36</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731430674.3091402</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731430674.7587996</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430674.3091402.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430674.7587996.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>362.33</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>360.7</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.629999999999995</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731430675.0013793</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731430676.1940203</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430675.0013793.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430676.1940203.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>363.1</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>362.65</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.4500000000000455</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731430676.5745554</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731430677.1869504</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430676.5745554.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430677.1869504.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>361.5</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>362.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.300000000000011</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731430677.4926152</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731430677.9269617</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430677.4926152.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430677.9269617.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>363.78</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>362.42</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1.359999999999957</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731430679.3846467</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731430680.2957854</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430679.3846467.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430680.2957854.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>363.7</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>363.01</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731430680.4467492</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731430680.9493644</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430680.4467492.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731430680.9493644.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>366.4</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>371.66</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-5.260000000000048</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-1.44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731430680.9651346</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731430680.9651346.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731430680.9651346.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>371.66</v>
       </c>
-      <c r="J70" t="n">
-        <v>371.66</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-1.420000000000016</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731430682.7374218</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731430684.490327</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430682.7374218.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430684.490327.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.10028</v>
       </c>
-      <c r="K71" t="n">
-        <v>-0.0007999999999999952</v>
+      <c r="M71" t="n">
+        <v>-0.0007999999999999813</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731430685.1833043</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731430685.3595412</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430685.1833043.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430685.3595412.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.10076</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.10046</v>
       </c>
-      <c r="K72" t="n">
-        <v>0.0002999999999999947</v>
+      <c r="M72" t="n">
+        <v>0.0003000000000000086</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731430686.3205314</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731430686.8537784</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430686.3205314.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430686.8537784.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.1008</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.1004</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0003999999999999976</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731430687.708942</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731430689.8198204</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430687.708942.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430689.8198204.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.10026</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.10062</v>
       </c>
-      <c r="K74" t="n">
-        <v>0.0003600000000000131</v>
+      <c r="M74" t="n">
+        <v>0.0003599999999999992</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731430689.8357775</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731430689.9024792</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430689.8357775.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731430689.9024792.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.10062</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.1005</v>
       </c>
-      <c r="K75" t="n">
-        <v>0.000120000000000009</v>
+      <c r="M75" t="n">
+        <v>0.0001199999999999951</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731430690.4155233</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731430690.4155233.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731430690.4155233.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.10024</v>
       </c>
-      <c r="J76" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>0.10026</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.000000000000612e-05</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731430690.6175828</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731430693.0066288</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430690.6175828.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430693.0066288.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>3119.05</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-1.900000000000091</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731430694.6476398</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731430695.2379098</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430694.6476398.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430695.2379098.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>3115.85</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>3119.55</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>3.700000000000273</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731430695.7464216</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731430697.7083771</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430695.7464216.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430697.7083771.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>3121.9</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>3121.5</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731430699.276293</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731430699.8102913</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430699.276293.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731430699.8102913.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>3126.75</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>3134</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-7.25</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731430700.0228086</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731430700.0228086.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731430700.0228086.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>3130</v>
       </c>
-      <c r="J81" t="n">
-        <v>3130</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
+      <c r="L81" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.949999999999818</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731430703.2278569</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731430703.5210738</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731430703.2278569.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731430703.5210738.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>38.17</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>38.095</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731430703.537032</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731430705.258795</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731430703.537032.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731430705.258795.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>38.095</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>38.045</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731430705.385447</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731430705.9608302</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731430705.385447.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731430705.9608302.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>37.98</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>37.97</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731430707.312497</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731430707.312497.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731430707.312497.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>38.01</v>
       </c>
-      <c r="J85" t="n">
-        <v>38.01</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
+      <c r="L85" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.01500000000000057</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731430709.0002422</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731430709.788361</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430709.0002422.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430709.788361.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>663.5</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>662.9</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731430710.5515423</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731430710.6255565</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430710.5515423.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430710.6255565.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>664.9</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>663.6</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.299999999999955</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731430710.895604</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731430711.3827894</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430710.895604.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430711.3827894.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>662.5</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>664</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731430711.565561</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731430712.2696006</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430711.565561.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430712.2696006.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>662.5</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>663.4</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731430712.5486348</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731430713.0873528</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430712.5486348.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430713.0873528.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>664.1</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>663.3</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.8000000000000682</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731430713.2942376</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731430714.1672997</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430713.2942376.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731430714.1672997.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>665.6</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>665</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731430715.9853272</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731430715.9853272.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731430715.9853272.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>665.8</v>
       </c>
-      <c r="J92" t="n">
-        <v>665.8</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
+      <c r="L92" t="n">
+        <v>665.2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +5662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4859,6 +5691,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4867,13 +5709,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1699999999999591</v>
+        <v>-1.250000000000057</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02428571428570844</v>
+        <v>-0.1785714285714367</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3">
@@ -4883,13 +5731,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.700000000000045</v>
+        <v>5.100000000000136</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8142857142857208</v>
+        <v>0.7285714285714481</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -4899,13 +5753,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.839999999999975</v>
+        <v>0.8299999999999557</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1199999999999964</v>
+        <v>0.1185714285714222</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -4915,13 +5775,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8599999999999852</v>
+        <v>0.839999999999975</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1228571428571407</v>
+        <v>0.1199999999999964</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -4931,13 +5797,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003800000000000192</v>
+        <v>0.0004000000000000253</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>6.333333333333653e-05</v>
+        <v>6.666666666667088e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4947,13 +5819,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01999999999999602</v>
+        <v>-0.08999999999999631</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00333333333333267</v>
+        <v>-0.01499999999999938</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5841,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.049999999999727</v>
+        <v>-2.099999999999909</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.009999999999945</v>
+        <v>-0.4199999999999818</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
@@ -4979,13 +5863,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
@@ -5003,6 +5893,12 @@
       <c r="D10" t="n">
         <v>0.09999999999999716</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5011,13 +5907,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1399999999999864</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02799999999999727</v>
+        <v>-0.02000000000000455</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
@@ -5027,13 +5929,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01500000000000767</v>
+        <v>0.03000000000000824</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003750000000001918</v>
+        <v>0.007500000000002061</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
@@ -5051,6 +5959,12 @@
       <c r="D13" t="n">
         <v>0.0899999999999892</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5059,13 +5973,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1500000000000057</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03750000000000142</v>
+        <v>-0.05000000000000071</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
@@ -5083,6 +6003,12 @@
       <c r="D15" t="n">
         <v>0.06000000000000227</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5091,13 +6017,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.299999999999955</v>
+        <v>-1.25</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3249999999999886</v>
+        <v>-0.3125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="17">
@@ -5107,13 +6039,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.200000000000273</v>
+        <v>-2.999999999999773</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1.800000000000068</v>
+        <v>-0.7499999999999432</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.2699999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5123,13 +6061,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.639999999999986</v>
+        <v>-4.079999999999984</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.213333333333329</v>
+        <v>-1.359999999999995</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5139,13 +6083,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6</v>
+        <v>-9.200000000000045</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-2</v>
+        <v>-3.066666666666682</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="20">
@@ -5161,6 +6111,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
